--- a/JORS paper/Add_sectors/add_commodity.xlsx
+++ b/JORS paper/Add_sectors/add_commodity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enextgen22.sharepoint.com/sites/eNextGen/Shared Documents/Publications/MARIO JORS/Add_sectors/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MARIO Organization\Tutorials\JORS paper\Add_sectors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AEB41A492AE7ABA8E6540EB8B8B6284812DE8180" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59577D2C-4BD5-41A9-8DFE-32F922BE3E72}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69796D52-AE0F-4916-AE9E-F090A2A37C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4665" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,9 +449,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,9 +489,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,26 +524,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,26 +559,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -775,9 +741,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +772,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -817,7 +783,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -828,7 +794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -839,7 +805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -850,7 +816,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -858,7 +824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -866,7 +832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -874,7 +840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -882,7 +848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -890,7 +856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -898,7 +864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -906,7 +872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -914,7 +880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -922,7 +888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -930,7 +896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -938,7 +904,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -946,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -954,7 +920,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -962,7 +928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -970,7 +936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -978,7 +944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -986,7 +952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -994,7 +960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -1002,7 +968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -1010,7 +976,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -1018,7 +984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>31</v>
       </c>
@@ -1026,7 +992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -1034,7 +1000,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -1042,7 +1008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -1050,7 +1016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -1058,7 +1024,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -1066,7 +1032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>38</v>
       </c>
@@ -1082,7 +1048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>39</v>
       </c>
@@ -1090,7 +1056,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>40</v>
       </c>
@@ -1098,7 +1064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1072,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>42</v>
       </c>
@@ -1114,7 +1080,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>43</v>
       </c>
@@ -1122,7 +1088,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>44</v>
       </c>
@@ -1130,7 +1096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -1138,7 +1104,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>46</v>
       </c>
@@ -1146,7 +1112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>47</v>
       </c>
@@ -1154,7 +1120,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>48</v>
       </c>
@@ -1162,37 +1128,37 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>97</v>
       </c>
@@ -1206,19 +1172,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
@@ -1226,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>105</v>
       </c>
@@ -1234,7 +1200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>106</v>
       </c>
@@ -1242,7 +1208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1253,7 +1219,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1278,7 +1244,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1289,7 +1255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1337,9 +1303,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1356,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1373,7 +1339,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -1416,9 +1382,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1452,7 +1418,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -1497,29 +1463,29 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1496,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1507,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +1518,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1529,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,19 +1573,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1636,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1653,7 +1619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
@@ -1679,7 +1645,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1726,18 +1692,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -1751,6 +1720,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="41dfb0ee-378a-4797-aad0-ffee19b623e0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bb85c8e6-2c82-4464-b3b5-9ed7d119ca3f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004F4FF4F32C075E448996B1AC29E95316" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b25848f4af8ed5bf2c3b5515d4bf6c28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb85c8e6-2c82-4464-b3b5-9ed7d119ca3f" xmlns:ns3="41dfb0ee-378a-4797-aad0-ffee19b623e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffdee35915cdcba77063b5673c159574" ns2:_="" ns3:_="">
     <xsd:import namespace="bb85c8e6-2c82-4464-b3b5-9ed7d119ca3f"/>
@@ -1967,28 +1956,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="41dfb0ee-378a-4797-aad0-ffee19b623e0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bb85c8e6-2c82-4464-b3b5-9ed7d119ca3f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3D20FDF-6321-472C-95A9-9A6F617E8C23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F66A2161-A2CA-43AE-8760-9B8C8E701F4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="41dfb0ee-378a-4797-aad0-ffee19b623e0"/>
+    <ds:schemaRef ds:uri="bb85c8e6-2c82-4464-b3b5-9ed7d119ca3f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2000,5 +1976,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F66A2161-A2CA-43AE-8760-9B8C8E701F4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3D20FDF-6321-472C-95A9-9A6F617E8C23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb85c8e6-2c82-4464-b3b5-9ed7d119ca3f"/>
+    <ds:schemaRef ds:uri="41dfb0ee-378a-4797-aad0-ffee19b623e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>